--- a/AsistManager/wwwroot/Uploads/registros.xlsx
+++ b/AsistManager/wwwroot/Uploads/registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ED8D54-3C54-41F2-8857-6B67C2F950A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8D29-FF1A-4D7D-B814-6C214EB6D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="6090" windowWidth="16290" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="5190" windowWidth="16290" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registros" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Ivo</t>
+  </si>
+  <si>
+    <t>Gallione</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -107,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellido"/>
@@ -408,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +483,38 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1111111</v>
+      </c>
+      <c r="D3">
+        <v>1111111111</v>
+      </c>
+      <c r="E3">
+        <v>111111111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/AsistManager/wwwroot/Uploads/registros.xlsx
+++ b/AsistManager/wwwroot/Uploads/registros.xlsx
@@ -1,144 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8D29-FF1A-4D7D-B814-6C214EB6D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="10065" yWindow="5190" windowWidth="16290" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Registros" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Registros" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>CUIT</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Habilitado</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>Sampietro</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ivo</t>
-  </si>
-  <si>
-    <t>Gallione</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Nombre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apellido</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Celular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grupo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habilitado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alta</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellido"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DNI"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CUIT"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Celular"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Grupo"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Habilitado"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alta"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0">
+  <x:autoFilter ref="A1:H2"/>
+  <x:tableColumns count="8">
+    <x:tableColumn id="1" name="Nombre"/>
+    <x:tableColumn id="2" name="Apellido"/>
+    <x:tableColumn id="3" name="DNI"/>
+    <x:tableColumn id="4" name="CUIT"/>
+    <x:tableColumn id="5" name="Celular"/>
+    <x:tableColumn id="6" name="Grupo"/>
+    <x:tableColumn id="7" name="Habilitado"/>
+    <x:tableColumn id="8" name="Alta"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,101 +401,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>41063181</v>
-      </c>
-      <c r="D2">
-        <v>2041063181</v>
-      </c>
-      <c r="E2">
-        <v>1140428102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1111111</v>
-      </c>
-      <c r="D3">
-        <v>1111111111</v>
-      </c>
-      <c r="E3">
-        <v>111111111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId5"/>
+  </x:tableParts>
+</x:worksheet>
 </file>
--- a/AsistManager/wwwroot/Uploads/registros.xlsx
+++ b/AsistManager/wwwroot/Uploads/registros.xlsx
@@ -38,6 +38,456 @@
   </x:si>
   <x:si>
     <x:t>Alta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reece</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shugg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-25331652-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(142) 4993773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puku</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sí</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10149315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(586) 8205499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hartebeest, coke's</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cobby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogeon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8956649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-13237035-61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(382) 6611426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Armadillo, common long-nosed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Etti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boulsher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15572339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69-53131429-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(972) 6509150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mongoose, banded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vinnie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pentony</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13354602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34-43197113-99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(295) 8322970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ring-tailed coatimundi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Billitteri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81217729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-80940595-96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(775) 2516606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eurasian beaver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashlen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>de Tocqueville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12436626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49-42574341-65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(832) 8024500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greater blue-eared starling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Damp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91306638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67-34291374-92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(883) 4920125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mockingbird, galapagos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeromy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rielly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29177523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-93557794-67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(792) 9271736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Squirrel, indian giant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Garold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reiner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37647492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76-97691202-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(703) 5961604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goanna lizard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stephen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Danick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78452955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63-57238603-93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(329) 4881121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grey fox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hugibert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bosomworth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83756470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64-96350335-62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(665) 3956554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>African skink</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wanids</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Du Hamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93963919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50-91779460-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(407) 1366643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Starfish, crown of thorns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Demetria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolledge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82960998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59-13274709-91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(883) 5654742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Square-lipped rhinoceros</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delcine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McMillan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66144133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-16911837-64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(446) 2181833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tyrant flycatcher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shirline</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shelley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41045523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55-11757474-60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(378) 8226608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Puffin, horned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jonas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grieger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56792120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34-62192081-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(533) 5560622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drongo, fork-tailed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gobourn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32833883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90-22862581-96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(568) 4775056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cat, african wild</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haleigh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Godlee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8893982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42-77773577-94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(626) 8553839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oriental short-clawed otter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71262655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95-14518863-58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(772) 2582295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Starling, superb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2801641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32-56096304-96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(464) 2533904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caiman, spectacled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alvan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mingaud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89691387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00-09784203-93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(239) 6220253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster, gila</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wakeham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33673900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93-58645938-93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(297) 5042126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Numbat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91546708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72-78884924-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(645) 1485584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tortoise, indian star</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silvan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nealand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51815122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61-93615499-36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(876) 6153539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibis, puna</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -101,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0">
-  <x:autoFilter ref="A1:H2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0">
+  <x:autoFilter ref="A1:H51"/>
   <x:tableColumns count="8">
     <x:tableColumn id="1" name="Nombre"/>
     <x:tableColumn id="2" name="Apellido"/>
@@ -405,7 +855,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -435,6 +885,1294 @@
       </x:c>
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
+      <x:c r="A48" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8">
+      <x:c r="A49" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
+      <x:c r="A51" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
